--- a/Sepa/Documentation/EAD_PS_Research.xlsx
+++ b/Sepa/Documentation/EAD_PS_Research.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccarb\Dropbox\Education\HDip_Year2\EAD\EAD_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccarb\Dropbox\Education\HDip_Year2\EAD\EAD_Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33EF82C-865D-4634-80A7-2D17F37A4167}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063D657B-F290-40B5-A3FF-2D87397AC93A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CCF5F71F-EC09-4092-B2C2-B274CFCA3517}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="198">
   <si>
     <t xml:space="preserve">Type </t>
   </si>
@@ -529,6 +529,102 @@
   </si>
   <si>
     <t xml:space="preserve">EF Migrations Command Reference </t>
+  </si>
+  <si>
+    <t>http://www.binaryintellect.net/articles/b1e0b153-47f4-4b29-8583-958aa22d9284.aspx</t>
+  </si>
+  <si>
+    <t>http://www.binaryintellect.net/articles/4a00a9ce-73e5-4d89-aaae-2d835eca0854.aspx</t>
+  </si>
+  <si>
+    <t>Perform List, Insert, Update And Delete In A Single View In ASP.NET MVC</t>
+  </si>
+  <si>
+    <t>Grouping and Summing with Lambda Expressions</t>
+  </si>
+  <si>
+    <t>https://blogs.msmvps.com/deborahk/grouping-and-summing-with-lambda-expressions/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Services </t>
+  </si>
+  <si>
+    <t>https://examples.javacodegeeks.com/enterprise-java/differences-between-rest-soap-apis/</t>
+  </si>
+  <si>
+    <t>Differences Between REST and SOAP APIs</t>
+  </si>
+  <si>
+    <t>https://www.connectionstrings.com/</t>
+  </si>
+  <si>
+    <t>Connection Strings</t>
+  </si>
+  <si>
+    <t>https://www.entityframeworktutorial.net/EntityFramework4.3/execute-stored-procedure-using-dbcontext.aspx</t>
+  </si>
+  <si>
+    <t>Execute Stored Procedure using DBContext</t>
+  </si>
+  <si>
+    <t>https://blog.sqlauthority.com/</t>
+  </si>
+  <si>
+    <t>SQL Authority</t>
+  </si>
+  <si>
+    <t>https://www.c-sharpcorner.com/article/how-to-create-a-stored-procedure-in-sql-server-management-studio/</t>
+  </si>
+  <si>
+    <t>How To Create A Stored Procedure In SQL Server Management Studio</t>
+  </si>
+  <si>
+    <t>https://riptutorial.com/</t>
+  </si>
+  <si>
+    <t>Archived Stack Overflow Documentation</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/aspnet/identity/overview/getting-started/adding-aspnet-identity-to-an-empty-or-existing-web-forms-project</t>
+  </si>
+  <si>
+    <t>Adding ASP.NET Identity to an Empty or Existing Web Forms Project</t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/31960433/adding-asp-net-mvc5-identity-authentication-to-an-existing-project</t>
+  </si>
+  <si>
+    <t>https://weblog.west-wind.com/posts/2015/Apr/29/Adding-minimal-OWIN-Identity-Authentication-to-an-Existing-ASPNET-MVC-Application</t>
+  </si>
+  <si>
+    <t>https://jeremiahstillings.net/vs-2017-adding-authentication-individual-user-accounts-to-an-existing-asp-net-core-web-app/</t>
+  </si>
+  <si>
+    <t>ADDING AUTHENTICATION: INDIVIDUAL USER ACCOUNTS TO AN EXISTING ASP.NET CORE WEB APP</t>
+  </si>
+  <si>
+    <t>https://www.c-sharpcorner.com/article/simple-login-application-using-Asp-Net-mvc/</t>
+  </si>
+  <si>
+    <t>Simple Login Application using Sessions in ASP.NET MVC</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Xg7lhR-JIFk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple Login Screen </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HYrXogLj7vg</t>
+  </si>
+  <si>
+    <t>UnitTest</t>
+  </si>
+  <si>
+    <t>Unit Testing Tutorial for C# Developers | Mosh</t>
   </si>
 </sst>
 </file>
@@ -982,11 +1078,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4400E07E-2310-4AC7-9DE7-C6271B2D74E6}">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,6 +1839,9 @@
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
@@ -2191,6 +2290,275 @@
       </c>
       <c r="F69" s="2" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="4">
+        <v>43593</v>
+      </c>
+      <c r="D70" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" t="s">
+        <v>116</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="4">
+        <v>43593</v>
+      </c>
+      <c r="D71" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" t="s">
+        <v>168</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="4">
+        <v>43594</v>
+      </c>
+      <c r="D72" t="s">
+        <v>120</v>
+      </c>
+      <c r="E72" t="s">
+        <v>169</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="4">
+        <v>43597</v>
+      </c>
+      <c r="D73" t="s">
+        <v>171</v>
+      </c>
+      <c r="E73" t="s">
+        <v>173</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="4">
+        <v>43598</v>
+      </c>
+      <c r="D74" t="s">
+        <v>95</v>
+      </c>
+      <c r="E74" t="s">
+        <v>175</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="4">
+        <v>43598</v>
+      </c>
+      <c r="D75" t="s">
+        <v>95</v>
+      </c>
+      <c r="E75" t="s">
+        <v>177</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="4">
+        <v>43600</v>
+      </c>
+      <c r="D76" t="s">
+        <v>95</v>
+      </c>
+      <c r="E76" t="s">
+        <v>179</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="4">
+        <v>43603</v>
+      </c>
+      <c r="D77" t="s">
+        <v>95</v>
+      </c>
+      <c r="E77" t="s">
+        <v>181</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="4">
+        <v>43609</v>
+      </c>
+      <c r="E78" t="s">
+        <v>183</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="4">
+        <v>43609</v>
+      </c>
+      <c r="D79" t="s">
+        <v>186</v>
+      </c>
+      <c r="E79" t="s">
+        <v>185</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="4">
+        <v>43609</v>
+      </c>
+      <c r="D80" t="s">
+        <v>186</v>
+      </c>
+      <c r="E80" t="s">
+        <v>185</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="4">
+        <v>43613</v>
+      </c>
+      <c r="D81" t="s">
+        <v>186</v>
+      </c>
+      <c r="E81" t="s">
+        <v>185</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="4">
+        <v>43613</v>
+      </c>
+      <c r="D82" t="s">
+        <v>186</v>
+      </c>
+      <c r="E82" t="s">
+        <v>190</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="4">
+        <v>43613</v>
+      </c>
+      <c r="D83" t="s">
+        <v>186</v>
+      </c>
+      <c r="E83" t="s">
+        <v>192</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="4">
+        <v>43613</v>
+      </c>
+      <c r="D84" t="s">
+        <v>186</v>
+      </c>
+      <c r="E84" t="s">
+        <v>194</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="4">
+        <v>43620</v>
+      </c>
+      <c r="D85" t="s">
+        <v>196</v>
+      </c>
+      <c r="E85" t="s">
+        <v>197</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2266,9 +2634,25 @@
     <hyperlink ref="F67" r:id="rId64" xr:uid="{E24221E5-A8FF-4467-B3C5-C99F610201AB}"/>
     <hyperlink ref="F68" r:id="rId65" xr:uid="{52040E86-5551-46ED-94E6-B8563FF0DA3C}"/>
     <hyperlink ref="F69" r:id="rId66" xr:uid="{9F0EE808-DA45-440E-9CDA-679D91B4BD08}"/>
+    <hyperlink ref="F70" r:id="rId67" xr:uid="{B329E892-303C-4B92-821B-3A5086BDA589}"/>
+    <hyperlink ref="F71" r:id="rId68" xr:uid="{721D32B5-C11A-40BC-96A0-8A08BEAAF7C5}"/>
+    <hyperlink ref="F72" r:id="rId69" xr:uid="{757D9346-F850-4E69-9818-0CBB62B87E79}"/>
+    <hyperlink ref="F73" r:id="rId70" xr:uid="{2E82D512-0FB2-454C-A235-835ED6555355}"/>
+    <hyperlink ref="F74" r:id="rId71" xr:uid="{36720F36-915C-46A4-A852-13A93338A042}"/>
+    <hyperlink ref="F75" r:id="rId72" xr:uid="{D515F80C-C36B-45EA-BC17-CFEF47CDE9EA}"/>
+    <hyperlink ref="F76" r:id="rId73" xr:uid="{9FBE2FB3-44F6-4612-A79D-D3792A7D4DA5}"/>
+    <hyperlink ref="F77" r:id="rId74" xr:uid="{0A490FC6-EF6C-49D4-A320-44D5216BDB7C}"/>
+    <hyperlink ref="F78" r:id="rId75" xr:uid="{2FA398C2-3056-4C75-88F4-3EB4D8932C36}"/>
+    <hyperlink ref="F79" r:id="rId76" xr:uid="{A92C3896-A5A4-4EDA-97C3-EBAC28B98616}"/>
+    <hyperlink ref="F80" r:id="rId77" xr:uid="{EA02EED7-EE87-4FD9-AD31-6C8197FBABBA}"/>
+    <hyperlink ref="F81" r:id="rId78" xr:uid="{8741A1F9-816A-41C8-B265-8D5D193F2536}"/>
+    <hyperlink ref="F82" r:id="rId79" xr:uid="{FED70214-BBF4-4E3D-82ED-E321BCD716DC}"/>
+    <hyperlink ref="F83" r:id="rId80" xr:uid="{81D2AEAE-3BC7-4279-B885-F2D35999C3E9}"/>
+    <hyperlink ref="F84" r:id="rId81" xr:uid="{AEBEA248-1A67-4325-966B-E60BF196D096}"/>
+    <hyperlink ref="F85" r:id="rId82" xr:uid="{CE82EE47-4AD1-495A-98A7-32CC118C1C71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId67"/>
-  <drawing r:id="rId68"/>
+  <pageSetup orientation="portrait" r:id="rId83"/>
+  <drawing r:id="rId84"/>
 </worksheet>
 </file>